--- a/jour18.xlsx
+++ b/jour18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Lega']</t>
-  </si>
-  <si>
-    <t>['Dembele']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Alphonse', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Gigot', 'Payet']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Conte']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Ponceau']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Brahimi', 'Beka']</t>
+    <t>['Beka', 'Moffi', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Doumbia']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Innocent', 'Le_Fee', 'Silva', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Gastien']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Harit', 'Ounahi', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Tchato']</t>
-  </si>
-  <si>
-    <t>['Sylla']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Martin']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Onaiwu', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Moalida']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Coco', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Messi', 'Verrati']</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'ChaÃ¯bi', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Brassier', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Michelin', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Gusto']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Sibide', 'Aguilar']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +570,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -593,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +599,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +657,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -709,16 +706,16 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,19 +732,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -773,7 +770,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -784,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,19 +790,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,7 +819,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -831,7 +828,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour18.xlsx
+++ b/jour18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Beka', 'Moffi', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Le_Fee', 'Silva', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Gastien']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Harit', 'Ounahi', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Djiku']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Ugbo']</t>
+    <t>['Boyer', 'Rajot', 'Gastien']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Beka', 'Diop', 'Pepe', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Burlet', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Jakobs']</t>
+  </si>
+  <si>
+    <t>['Ganago']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Silva']</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'ChaÃ¯bi', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Vidal', 'Michelin', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Gusto']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Sibide', 'Aguilar']</t>
+    <t>['Alphonse', 'Lebas', 'Michelin', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Desler', 'Ratao', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Medina', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Aouar', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Dembele']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Santamaria', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Bailly']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Guillaume', 'Mendy']</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -686,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -706,16 +709,16 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -735,16 +738,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -770,7 +773,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -799,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -828,7 +831,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour18.xlsx
+++ b/jour18.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Boyer', 'Rajot', 'Gastien']</t>
+    <t>['Valencia', 'Gradit', 'Le_Cardinal', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Sima', 'Masson', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Bercola']</t>
+  </si>
+  <si>
+    <t>['Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Pelon']</t>
+  </si>
+  <si>
+    <t>['Pepe']</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>['Serrano']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Lipinski']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Lopez', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Brassier', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Zeneli']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Beka', 'Diop', 'Pepe', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Burlet', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Jakobs']</t>
-  </si>
-  <si>
-    <t>['Ganago']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Silva']</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Lebas', 'Michelin', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Desler', 'Ratao', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Medina', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Bercola', 'Aouar', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Dembele']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Santamaria', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Bailly']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Guillaume', 'Mendy']</t>
+    <t>['Neymar', 'Messi']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,12 +747,12 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour18.xlsx
+++ b/jour18.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Valencia', 'Gradit', 'Le_Cardinal', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Sima', 'Masson', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Bercola']</t>
-  </si>
-  <si>
-    <t>['Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Pelon']</t>
-  </si>
-  <si>
-    <t>['Pepe']</t>
+    <t>['Kroupi', 'Ponceau', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Savanier', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Soler', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Fortes', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Castelletto']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Serrano']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Lipinski']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Lopez', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Brassier', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Messi']</t>
+    <t>['H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Massolin', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Dugimont', 'Danois', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Salmier', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Masson']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,12 +660,12 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,12 +689,12 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour18.xlsx
+++ b/jour18.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Valencia', 'Gradit', 'Le_Cardinal', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Sima', 'Masson', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Bercola']</t>
-  </si>
-  <si>
-    <t>['Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Pelon']</t>
-  </si>
-  <si>
-    <t>['Pepe']</t>
+    <t>['Andre', 'David', 'Fonte', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Ben_Yedder', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Diallo']</t>
+  </si>
+  <si>
+    <t>['Boura']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Angers</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>['Serrano']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Lipinski']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Lopez', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Brassier', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Messi']</t>
+    <t>['Zeneli']</t>
+  </si>
+  <si>
+    <t>['Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Wieteska']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Gameiro', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Moffi', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Khazri', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Brassier', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Ruiz']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -573,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour18.xlsx
+++ b/jour18.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Brassier', 'Le_Douaron', 'Mounie', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen', 'Onaiwu', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Talbi', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Sanchez', 'Aouar']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Clauss']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Gradit']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Gonzalez', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Rongier']</t>
+  </si>
+  <si>
+    <t>['Dallinga']</t>
+  </si>
+  <si>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Toulouse</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Lienard', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Verrati']</t>
-  </si>
-  <si>
-    <t>['Boyer']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Henrique', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Cajuste', 'Cajuste', 'Ito']</t>
+    <t>['Tagliafico', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Djiku']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Ben_Yedder', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Bamba']</t>
+  </si>
+  <si>
+    <t>['Serhuis', 'Moalida', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Lemarechal', 'Tavares', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Delort']</t>
   </si>
 </sst>
 </file>
@@ -509,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>26</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
